--- a/filtered_cars.xlsx
+++ b/filtered_cars.xlsx
@@ -638,7 +638,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X2" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X3" t="n">
@@ -818,7 +818,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X4" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X5" t="n">
@@ -998,7 +998,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X6" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X7" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X8" t="n">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X9" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X10" t="n">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X11" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X12" t="n">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X13" t="n">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X15" t="n">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X16" t="n">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X17" t="n">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X18" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X19" t="n">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X20" t="n">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X21" t="n">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X22" t="n">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X23" t="n">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X24" t="n">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X25" t="n">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X26" t="n">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X27" t="n">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X28" t="n">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X29" t="n">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X30" t="n">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X31" t="n">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X32" t="n">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X33" t="n">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X34" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X35" t="n">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X36" t="n">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X37" t="n">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X38" t="n">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X39" t="n">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X40" t="n">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X41" t="n">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X42" t="n">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X43" t="n">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X45" t="n">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X46" t="n">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X47" t="n">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X48" t="n">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X49" t="n">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X51" t="n">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X52" t="n">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X53" t="n">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X55" t="n">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X56" t="n">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X57" t="n">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X58" t="n">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X59" t="n">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X60" t="n">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X61" t="n">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X62" t="n">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X63" t="n">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X64" t="n">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X65" t="n">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X66" t="n">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X67" t="n">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X68" t="n">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X69" t="n">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X70" t="n">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X71" t="n">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X72" t="n">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X73" t="n">
@@ -7118,7 +7118,7 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X74" t="n">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X75" t="n">
@@ -7298,7 +7298,7 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X76" t="n">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X77" t="n">
@@ -7478,7 +7478,7 @@
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X78" t="n">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X79" t="n">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X81" t="n">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X82" t="n">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X83" t="n">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X84" t="n">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X85" t="n">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X86" t="n">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X87" t="n">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X88" t="n">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X89" t="n">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X90" t="n">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X91" t="n">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X92" t="n">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X93" t="n">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X94" t="n">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X95" t="n">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X96" t="n">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X97" t="n">
@@ -9278,7 +9278,7 @@
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X98" t="n">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X99" t="n">
@@ -9548,7 +9548,7 @@
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X101" t="n">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X102" t="n">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X103" t="n">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X104" t="n">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X105" t="n">
@@ -9998,7 +9998,7 @@
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X106" t="n">
@@ -10088,7 +10088,7 @@
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X107" t="n">
@@ -10178,7 +10178,7 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X108" t="n">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X109" t="n">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X110" t="n">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X111" t="n">
@@ -10538,7 +10538,7 @@
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X112" t="n">
@@ -10628,7 +10628,7 @@
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X113" t="n">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X114" t="n">
@@ -10808,7 +10808,7 @@
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X115" t="n">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X116" t="n">
@@ -11078,7 +11078,7 @@
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X118" t="n">
@@ -11168,7 +11168,7 @@
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X119" t="n">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X120" t="n">
@@ -11348,7 +11348,7 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X121" t="n">
@@ -11438,7 +11438,7 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X122" t="n">
@@ -11528,7 +11528,7 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X123" t="n">
@@ -11618,7 +11618,7 @@
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X124" t="n">
@@ -11708,7 +11708,7 @@
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X125" t="n">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X126" t="n">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X127" t="n">
@@ -11978,7 +11978,7 @@
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X128" t="n">
@@ -12068,7 +12068,7 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X129" t="n">
@@ -12158,7 +12158,7 @@
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X130" t="n">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X131" t="n">
@@ -12338,7 +12338,7 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X132" t="n">
@@ -12428,7 +12428,7 @@
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X133" t="n">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X135" t="n">
@@ -12698,7 +12698,7 @@
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X136" t="n">
@@ -12788,7 +12788,7 @@
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X137" t="n">
@@ -12878,7 +12878,7 @@
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X138" t="n">
@@ -12968,7 +12968,7 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X139" t="n">
@@ -13058,7 +13058,7 @@
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X140" t="n">
@@ -13148,7 +13148,7 @@
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X141" t="n">
@@ -13328,7 +13328,7 @@
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X143" t="n">
@@ -13508,7 +13508,7 @@
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X145" t="n">
@@ -13598,7 +13598,7 @@
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X146" t="n">
@@ -13688,7 +13688,7 @@
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X147" t="n">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X148" t="n">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X150" t="n">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X151" t="n">
@@ -14138,7 +14138,7 @@
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X152" t="n">
@@ -14228,7 +14228,7 @@
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X153" t="n">
@@ -14408,7 +14408,7 @@
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X155" t="n">
@@ -14498,7 +14498,7 @@
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X156" t="n">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X157" t="n">
@@ -14678,7 +14678,7 @@
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X158" t="n">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X159" t="n">
@@ -14858,7 +14858,7 @@
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X160" t="n">
@@ -14948,7 +14948,7 @@
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X161" t="n">
@@ -15038,7 +15038,7 @@
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X162" t="n">
@@ -15128,7 +15128,7 @@
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X163" t="n">
@@ -15218,7 +15218,7 @@
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X164" t="n">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X165" t="n">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X166" t="n">
@@ -15488,7 +15488,7 @@
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X167" t="n">
@@ -15668,7 +15668,7 @@
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X169" t="n">
@@ -15758,7 +15758,7 @@
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X170" t="n">
@@ -15848,7 +15848,7 @@
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X171" t="n">
@@ -15938,7 +15938,7 @@
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X172" t="n">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X173" t="n">
@@ -16118,7 +16118,7 @@
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X174" t="n">
@@ -16208,7 +16208,7 @@
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X175" t="n">
@@ -16298,7 +16298,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X176" t="n">
@@ -16388,7 +16388,7 @@
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X177" t="n">
@@ -16568,7 +16568,7 @@
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X179" t="n">
@@ -16658,7 +16658,7 @@
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X180" t="n">
@@ -16748,7 +16748,7 @@
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X181" t="n">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X182" t="n">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X183" t="n">
@@ -17018,7 +17018,7 @@
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X184" t="n">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X185" t="n">
@@ -17198,7 +17198,7 @@
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X186" t="n">
@@ -17288,7 +17288,7 @@
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X187" t="n">
@@ -17378,7 +17378,7 @@
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X188" t="n">
@@ -17468,7 +17468,7 @@
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X189" t="n">
@@ -17558,7 +17558,7 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X190" t="n">
@@ -17648,7 +17648,7 @@
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X191" t="n">
@@ -17738,7 +17738,7 @@
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X192" t="n">
@@ -17828,7 +17828,7 @@
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X193" t="n">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="W194" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X194" t="n">
@@ -18008,7 +18008,7 @@
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X195" t="n">
@@ -18098,7 +18098,7 @@
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X196" t="n">
@@ -18188,7 +18188,7 @@
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X197" t="n">
@@ -18278,7 +18278,7 @@
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X198" t="n">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="W199" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X199" t="n">
@@ -18458,7 +18458,7 @@
       </c>
       <c r="W200" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X200" t="n">
@@ -18548,7 +18548,7 @@
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X201" t="n">
@@ -18638,7 +18638,7 @@
       </c>
       <c r="W202" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X202" t="n">
@@ -18728,7 +18728,7 @@
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X203" t="n">
@@ -18908,7 +18908,7 @@
       </c>
       <c r="W205" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X205" t="n">
@@ -18998,7 +18998,7 @@
       </c>
       <c r="W206" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X206" t="n">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X207" t="n">
@@ -19178,7 +19178,7 @@
       </c>
       <c r="W208" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X208" t="n">
@@ -19268,7 +19268,7 @@
       </c>
       <c r="W209" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X209" t="n">
@@ -19358,7 +19358,7 @@
       </c>
       <c r="W210" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X210" t="n">
@@ -19448,7 +19448,7 @@
       </c>
       <c r="W211" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X211" t="n">
@@ -19538,7 +19538,7 @@
       </c>
       <c r="W212" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X212" t="n">
@@ -19628,7 +19628,7 @@
       </c>
       <c r="W213" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X213" t="n">
@@ -19718,7 +19718,7 @@
       </c>
       <c r="W214" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X214" t="n">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="W216" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X216" t="n">
@@ -19988,7 +19988,7 @@
       </c>
       <c r="W217" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X217" t="n">
@@ -20078,7 +20078,7 @@
       </c>
       <c r="W218" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X218" t="n">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="W219" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X219" t="n">
@@ -20258,7 +20258,7 @@
       </c>
       <c r="W220" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X220" t="n">
@@ -20348,7 +20348,7 @@
       </c>
       <c r="W221" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X221" t="n">
@@ -20438,7 +20438,7 @@
       </c>
       <c r="W222" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X222" t="n">
@@ -20528,7 +20528,7 @@
       </c>
       <c r="W223" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X223" t="n">
@@ -20618,7 +20618,7 @@
       </c>
       <c r="W224" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X224" t="n">
@@ -20708,7 +20708,7 @@
       </c>
       <c r="W225" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X225" t="n">
@@ -20798,7 +20798,7 @@
       </c>
       <c r="W226" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X226" t="n">
@@ -20888,7 +20888,7 @@
       </c>
       <c r="W227" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X227" t="n">
@@ -20978,7 +20978,7 @@
       </c>
       <c r="W228" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X228" t="n">
@@ -21068,7 +21068,7 @@
       </c>
       <c r="W229" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X229" t="n">
@@ -21158,7 +21158,7 @@
       </c>
       <c r="W230" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X230" t="n">
@@ -21338,7 +21338,7 @@
       </c>
       <c r="W232" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X232" t="n">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="W233" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X233" t="n">
@@ -21518,7 +21518,7 @@
       </c>
       <c r="W234" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X234" t="n">
@@ -21608,7 +21608,7 @@
       </c>
       <c r="W235" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X235" t="n">
@@ -21788,7 +21788,7 @@
       </c>
       <c r="W237" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X237" t="n">
@@ -21878,7 +21878,7 @@
       </c>
       <c r="W238" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X238" t="n">
@@ -21968,7 +21968,7 @@
       </c>
       <c r="W239" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X239" t="n">
@@ -22058,7 +22058,7 @@
       </c>
       <c r="W240" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X240" t="n">
@@ -22148,7 +22148,7 @@
       </c>
       <c r="W241" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X241" t="n">
@@ -22238,7 +22238,7 @@
       </c>
       <c r="W242" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X242" t="n">
@@ -22328,7 +22328,7 @@
       </c>
       <c r="W243" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X243" t="n">
@@ -22418,7 +22418,7 @@
       </c>
       <c r="W244" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X244" t="n">
@@ -22508,7 +22508,7 @@
       </c>
       <c r="W245" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X245" t="n">
@@ -22598,7 +22598,7 @@
       </c>
       <c r="W246" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X246" t="n">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="W247" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X247" t="n">
@@ -22778,7 +22778,7 @@
       </c>
       <c r="W248" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X248" t="n">
@@ -22868,7 +22868,7 @@
       </c>
       <c r="W249" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X249" t="n">
@@ -22958,7 +22958,7 @@
       </c>
       <c r="W250" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X250" t="n">
@@ -23048,7 +23048,7 @@
       </c>
       <c r="W251" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X251" t="n">
@@ -23138,7 +23138,7 @@
       </c>
       <c r="W252" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X252" t="n">
@@ -23228,7 +23228,7 @@
       </c>
       <c r="W253" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X253" t="n">
@@ -23318,7 +23318,7 @@
       </c>
       <c r="W254" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X254" t="n">
@@ -23408,7 +23408,7 @@
       </c>
       <c r="W255" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X255" t="n">
@@ -23498,7 +23498,7 @@
       </c>
       <c r="W256" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X256" t="n">
@@ -23588,7 +23588,7 @@
       </c>
       <c r="W257" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X257" t="n">
@@ -23678,7 +23678,7 @@
       </c>
       <c r="W258" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X258" t="n">
@@ -23768,7 +23768,7 @@
       </c>
       <c r="W259" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X259" t="n">
@@ -23858,7 +23858,7 @@
       </c>
       <c r="W260" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X260" t="n">
@@ -23948,7 +23948,7 @@
       </c>
       <c r="W261" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X261" t="n">
@@ -24038,7 +24038,7 @@
       </c>
       <c r="W262" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X262" t="n">
@@ -24128,7 +24128,7 @@
       </c>
       <c r="W263" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X263" t="n">
@@ -24218,7 +24218,7 @@
       </c>
       <c r="W264" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X264" t="n">
@@ -24308,7 +24308,7 @@
       </c>
       <c r="W265" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X265" t="n">
@@ -24398,7 +24398,7 @@
       </c>
       <c r="W266" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X266" t="n">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="W267" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X267" t="n">
@@ -24578,7 +24578,7 @@
       </c>
       <c r="W268" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X268" t="n">
@@ -24668,7 +24668,7 @@
       </c>
       <c r="W269" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X269" t="n">
@@ -24758,7 +24758,7 @@
       </c>
       <c r="W270" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X270" t="n">
@@ -24848,7 +24848,7 @@
       </c>
       <c r="W271" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X271" t="n">
@@ -24938,7 +24938,7 @@
       </c>
       <c r="W272" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X272" t="n">
@@ -25028,7 +25028,7 @@
       </c>
       <c r="W273" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X273" t="n">
@@ -25118,7 +25118,7 @@
       </c>
       <c r="W274" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X274" t="n">
@@ -25208,7 +25208,7 @@
       </c>
       <c r="W275" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X275" t="n">
@@ -25388,7 +25388,7 @@
       </c>
       <c r="W277" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X277" t="n">
@@ -25478,7 +25478,7 @@
       </c>
       <c r="W278" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X278" t="n">
@@ -25568,7 +25568,7 @@
       </c>
       <c r="W279" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X279" t="n">
@@ -25658,7 +25658,7 @@
       </c>
       <c r="W280" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X280" t="n">
@@ -25748,7 +25748,7 @@
       </c>
       <c r="W281" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X281" t="n">
@@ -25838,7 +25838,7 @@
       </c>
       <c r="W282" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X282" t="n">
@@ -25928,7 +25928,7 @@
       </c>
       <c r="W283" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X283" t="n">
@@ -26108,7 +26108,7 @@
       </c>
       <c r="W285" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X285" t="n">
@@ -26198,7 +26198,7 @@
       </c>
       <c r="W286" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X286" t="n">
@@ -26288,7 +26288,7 @@
       </c>
       <c r="W287" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X287" t="n">
@@ -26378,7 +26378,7 @@
       </c>
       <c r="W288" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X288" t="n">
@@ -26468,7 +26468,7 @@
       </c>
       <c r="W289" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X289" t="n">
@@ -26558,7 +26558,7 @@
       </c>
       <c r="W290" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X290" t="n">
@@ -26648,7 +26648,7 @@
       </c>
       <c r="W291" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X291" t="n">
@@ -26738,7 +26738,7 @@
       </c>
       <c r="W292" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X292" t="n">
@@ -26828,7 +26828,7 @@
       </c>
       <c r="W293" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X293" t="n">
@@ -26918,7 +26918,7 @@
       </c>
       <c r="W294" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X294" t="n">
@@ -27008,7 +27008,7 @@
       </c>
       <c r="W295" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X295" t="n">
@@ -27188,7 +27188,7 @@
       </c>
       <c r="W297" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X297" t="n">
@@ -27278,7 +27278,7 @@
       </c>
       <c r="W298" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X298" t="n">
@@ -27368,7 +27368,7 @@
       </c>
       <c r="W299" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X299" t="n">
@@ -27458,7 +27458,7 @@
       </c>
       <c r="W300" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X300" t="n">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="W301" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X301" t="n">
@@ -27638,7 +27638,7 @@
       </c>
       <c r="W302" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X302" t="n">
@@ -27728,7 +27728,7 @@
       </c>
       <c r="W303" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X303" t="n">
@@ -27908,7 +27908,7 @@
       </c>
       <c r="W305" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X305" t="n">
@@ -27998,7 +27998,7 @@
       </c>
       <c r="W306" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X306" t="n">
@@ -28088,7 +28088,7 @@
       </c>
       <c r="W307" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X307" t="n">
@@ -28178,7 +28178,7 @@
       </c>
       <c r="W308" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X308" t="n">
@@ -28268,7 +28268,7 @@
       </c>
       <c r="W309" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X309" t="n">
@@ -28358,7 +28358,7 @@
       </c>
       <c r="W310" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X310" t="n">
@@ -28448,7 +28448,7 @@
       </c>
       <c r="W311" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X311" t="n">
@@ -28538,7 +28538,7 @@
       </c>
       <c r="W312" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X312" t="n">
@@ -28628,7 +28628,7 @@
       </c>
       <c r="W313" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X313" t="n">
@@ -28718,7 +28718,7 @@
       </c>
       <c r="W314" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X314" t="n">
@@ -28808,7 +28808,7 @@
       </c>
       <c r="W315" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X315" t="n">
@@ -28898,7 +28898,7 @@
       </c>
       <c r="W316" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X316" t="n">
@@ -28988,7 +28988,7 @@
       </c>
       <c r="W317" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X317" t="n">
@@ -29258,7 +29258,7 @@
       </c>
       <c r="W320" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X320" t="n">
@@ -29348,7 +29348,7 @@
       </c>
       <c r="W321" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X321" t="n">
@@ -29438,7 +29438,7 @@
       </c>
       <c r="W322" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X322" t="n">
@@ -29528,7 +29528,7 @@
       </c>
       <c r="W323" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X323" t="n">
@@ -29618,7 +29618,7 @@
       </c>
       <c r="W324" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X324" t="n">
@@ -29708,7 +29708,7 @@
       </c>
       <c r="W325" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X325" t="n">
@@ -29798,7 +29798,7 @@
       </c>
       <c r="W326" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X326" t="n">
@@ -29888,7 +29888,7 @@
       </c>
       <c r="W327" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X327" t="n">
@@ -29978,7 +29978,7 @@
       </c>
       <c r="W328" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X328" t="n">
@@ -30068,7 +30068,7 @@
       </c>
       <c r="W329" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X329" t="n">
@@ -30158,7 +30158,7 @@
       </c>
       <c r="W330" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X330" t="n">
@@ -30248,7 +30248,7 @@
       </c>
       <c r="W331" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X331" t="n">
@@ -30338,7 +30338,7 @@
       </c>
       <c r="W332" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X332" t="n">
@@ -30428,7 +30428,7 @@
       </c>
       <c r="W333" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X333" t="n">
@@ -30518,7 +30518,7 @@
       </c>
       <c r="W334" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X334" t="n">
@@ -30608,7 +30608,7 @@
       </c>
       <c r="W335" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X335" t="n">
@@ -30698,7 +30698,7 @@
       </c>
       <c r="W336" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X336" t="n">
@@ -30788,7 +30788,7 @@
       </c>
       <c r="W337" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X337" t="n">
@@ -30878,7 +30878,7 @@
       </c>
       <c r="W338" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X338" t="n">
@@ -30968,7 +30968,7 @@
       </c>
       <c r="W339" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X339" t="n">
@@ -31058,7 +31058,7 @@
       </c>
       <c r="W340" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X340" t="n">
@@ -31148,7 +31148,7 @@
       </c>
       <c r="W341" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X341" t="n">
@@ -31238,7 +31238,7 @@
       </c>
       <c r="W342" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X342" t="n">
@@ -31418,7 +31418,7 @@
       </c>
       <c r="W344" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X344" t="n">
@@ -31598,7 +31598,7 @@
       </c>
       <c r="W346" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X346" t="n">
@@ -31688,7 +31688,7 @@
       </c>
       <c r="W347" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X347" t="n">
@@ -31778,7 +31778,7 @@
       </c>
       <c r="W348" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X348" t="n">
@@ -31868,7 +31868,7 @@
       </c>
       <c r="W349" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X349" t="n">
@@ -31958,7 +31958,7 @@
       </c>
       <c r="W350" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X350" t="n">
@@ -32048,7 +32048,7 @@
       </c>
       <c r="W351" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X351" t="n">
@@ -32138,7 +32138,7 @@
       </c>
       <c r="W352" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X352" t="n">
@@ -32228,7 +32228,7 @@
       </c>
       <c r="W353" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X353" t="n">
@@ -32408,7 +32408,7 @@
       </c>
       <c r="W355" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X355" t="n">
@@ -32498,7 +32498,7 @@
       </c>
       <c r="W356" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X356" t="n">
@@ -32588,7 +32588,7 @@
       </c>
       <c r="W357" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X357" t="n">
@@ -32678,7 +32678,7 @@
       </c>
       <c r="W358" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X358" t="n">
@@ -32768,7 +32768,7 @@
       </c>
       <c r="W359" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X359" t="n">
@@ -32858,7 +32858,7 @@
       </c>
       <c r="W360" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X360" t="n">
@@ -32948,7 +32948,7 @@
       </c>
       <c r="W361" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X361" t="n">
@@ -33038,7 +33038,7 @@
       </c>
       <c r="W362" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X362" t="n">
@@ -33128,7 +33128,7 @@
       </c>
       <c r="W363" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X363" t="n">
@@ -33308,7 +33308,7 @@
       </c>
       <c r="W365" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X365" t="n">
@@ -33398,7 +33398,7 @@
       </c>
       <c r="W366" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X366" t="n">
@@ -33488,7 +33488,7 @@
       </c>
       <c r="W367" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X367" t="n">
@@ -33578,7 +33578,7 @@
       </c>
       <c r="W368" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X368" t="n">
@@ -33668,7 +33668,7 @@
       </c>
       <c r="W369" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X369" t="n">
@@ -33758,7 +33758,7 @@
       </c>
       <c r="W370" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X370" t="n">
@@ -33848,7 +33848,7 @@
       </c>
       <c r="W371" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X371" t="n">
@@ -34028,7 +34028,7 @@
       </c>
       <c r="W373" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X373" t="n">
@@ -34118,7 +34118,7 @@
       </c>
       <c r="W374" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X374" t="n">
@@ -34208,7 +34208,7 @@
       </c>
       <c r="W375" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X375" t="n">
@@ -34298,7 +34298,7 @@
       </c>
       <c r="W376" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X376" t="n">
@@ -34388,7 +34388,7 @@
       </c>
       <c r="W377" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X377" t="n">
@@ -34478,7 +34478,7 @@
       </c>
       <c r="W378" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X378" t="n">
@@ -34568,7 +34568,7 @@
       </c>
       <c r="W379" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X379" t="n">
@@ -34658,7 +34658,7 @@
       </c>
       <c r="W380" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X380" t="n">
@@ -34748,7 +34748,7 @@
       </c>
       <c r="W381" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X381" t="n">
@@ -34838,7 +34838,7 @@
       </c>
       <c r="W382" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X382" t="n">
@@ -34928,7 +34928,7 @@
       </c>
       <c r="W383" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X383" t="n">
@@ -35018,7 +35018,7 @@
       </c>
       <c r="W384" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X384" t="n">
@@ -35108,7 +35108,7 @@
       </c>
       <c r="W385" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X385" t="n">
@@ -35198,7 +35198,7 @@
       </c>
       <c r="W386" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X386" t="n">
@@ -35288,7 +35288,7 @@
       </c>
       <c r="W387" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X387" t="n">
@@ -35378,7 +35378,7 @@
       </c>
       <c r="W388" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X388" t="n">
@@ -35468,7 +35468,7 @@
       </c>
       <c r="W389" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X389" t="n">
@@ -35558,7 +35558,7 @@
       </c>
       <c r="W390" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X390" t="n">
@@ -35648,7 +35648,7 @@
       </c>
       <c r="W391" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X391" t="n">
@@ -35738,7 +35738,7 @@
       </c>
       <c r="W392" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X392" t="n">
@@ -35828,7 +35828,7 @@
       </c>
       <c r="W393" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X393" t="n">
@@ -35918,7 +35918,7 @@
       </c>
       <c r="W394" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X394" t="n">
@@ -36008,7 +36008,7 @@
       </c>
       <c r="W395" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X395" t="n">
@@ -36098,7 +36098,7 @@
       </c>
       <c r="W396" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X396" t="n">
@@ -36188,7 +36188,7 @@
       </c>
       <c r="W397" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X397" t="n">
@@ -36278,7 +36278,7 @@
       </c>
       <c r="W398" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X398" t="n">
@@ -36368,7 +36368,7 @@
       </c>
       <c r="W399" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X399" t="n">
@@ -36458,7 +36458,7 @@
       </c>
       <c r="W400" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X400" t="n">
@@ -36548,7 +36548,7 @@
       </c>
       <c r="W401" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X401" t="n">
@@ -36638,7 +36638,7 @@
       </c>
       <c r="W402" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X402" t="n">
@@ -36728,7 +36728,7 @@
       </c>
       <c r="W403" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X403" t="n">
@@ -36818,7 +36818,7 @@
       </c>
       <c r="W404" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X404" t="n">
@@ -36908,7 +36908,7 @@
       </c>
       <c r="W405" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X405" t="n">
@@ -36998,7 +36998,7 @@
       </c>
       <c r="W406" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X406" t="n">
@@ -37088,7 +37088,7 @@
       </c>
       <c r="W407" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X407" t="n">
@@ -37178,7 +37178,7 @@
       </c>
       <c r="W408" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X408" t="n">
@@ -37268,7 +37268,7 @@
       </c>
       <c r="W409" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X409" t="n">
@@ -37358,7 +37358,7 @@
       </c>
       <c r="W410" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X410" t="n">
@@ -37448,7 +37448,7 @@
       </c>
       <c r="W411" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X411" t="n">
@@ -37538,7 +37538,7 @@
       </c>
       <c r="W412" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X412" t="n">
@@ -37628,7 +37628,7 @@
       </c>
       <c r="W413" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X413" t="n">
@@ -37718,7 +37718,7 @@
       </c>
       <c r="W414" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X414" t="n">
@@ -37808,7 +37808,7 @@
       </c>
       <c r="W415" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X415" t="n">
@@ -37898,7 +37898,7 @@
       </c>
       <c r="W416" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="X416" t="n">
@@ -37988,7 +37988,7 @@
       </c>
       <c r="W417" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X417" t="n">
@@ -38168,7 +38168,7 @@
       </c>
       <c r="W419" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X419" t="n">
@@ -38348,7 +38348,7 @@
       </c>
       <c r="W421" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X421" t="n">
@@ -38438,7 +38438,7 @@
       </c>
       <c r="W422" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>White</t>
         </is>
       </c>
       <c r="X422" t="n">
@@ -38528,7 +38528,7 @@
       </c>
       <c r="W423" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="X423" t="n">
@@ -38618,7 +38618,7 @@
       </c>
       <c r="W424" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X424" t="n">
@@ -38708,7 +38708,7 @@
       </c>
       <c r="W425" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X425" t="n">
@@ -38798,7 +38798,7 @@
       </c>
       <c r="W426" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="X426" t="n">
@@ -38888,7 +38888,7 @@
       </c>
       <c r="W427" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="X427" t="n">
@@ -38978,7 +38978,7 @@
       </c>
       <c r="W428" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="X428" t="n">
@@ -39068,7 +39068,7 @@
       </c>
       <c r="W429" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X429" t="n">
@@ -39158,7 +39158,7 @@
       </c>
       <c r="W430" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="X430" t="n">
@@ -39248,7 +39248,7 @@
       </c>
       <c r="W431" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="X431" t="n">
@@ -39338,7 +39338,7 @@
       </c>
       <c r="W432" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X432" t="n">
@@ -39428,7 +39428,7 @@
       </c>
       <c r="W433" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X433" t="n">
@@ -39518,7 +39518,7 @@
       </c>
       <c r="W434" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="X434" t="n">
@@ -39608,7 +39608,7 @@
       </c>
       <c r="W435" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="X435" t="n">
@@ -39698,7 +39698,7 @@
       </c>
       <c r="W436" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="X436" t="n">
@@ -39788,7 +39788,7 @@
       </c>
       <c r="W437" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="X437" t="n">
